--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -648,17 +648,13 @@
 </t>
   </si>
   <si>
-    <t>Code that identifies the allergy or intolerance</t>
-  </si>
-  <si>
-    <t>Code for an allergy or intolerance statement (either a positive or a negated/excluded statement).  This may be a code for a substance or pharmaceutical product that is considered to be responsible for the adverse reaction risk (e.g., "Latex"), an allergy or intolerance condition (e.g., "Latex allergy"), or a negated/excluded code for a specific substance or class (e.g., "No latex allergy") or a general or categorical negated statement (e.g.,  "No known allergy", "No known drug allergies").  Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.</t>
-  </si>
-  <si>
-    <t>It is strongly recommended that this element be populated using a terminology, where possible. For example, some terminologies used include RxNorm, SNOMED CT, DM+D, NDFRT, ICD-9, IDC-10, UNII, and ATC. Plain text should only be used if there is no appropriate terminology available. Additional details can be specified in the text.--When a substance or product code is specified for the 'code' element, the "default" semantic context is that this is a positive statement of an allergy or intolerance (depending on the value of the 'type' element, if present) condition to the specified substance/product.  In the corresponding SNOMED CT allergy model, the specified substance/product is the target (destination) of the "Causative agent" relationship.--The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
+    <t>Allergy / intolerance concept</t>
+  </si>
+  <si>
+    <t>Concept identifying a known allergy or intolerance (substance or agent) documented for the patient.</t>
+  </si>
+  <si>
+    <t>Targets AllergyIntolerance.code per ConceptMap.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
@@ -694,10 +690,13 @@
 </t>
   </si>
   <si>
-    <t>Who the sensitivity is for</t>
-  </si>
-  <si>
-    <t>The patient who has the allergy or intolerance.</t>
+    <t>Subject (patient)</t>
+  </si>
+  <si>
+    <t>Reference to the patient who is the subject of this allergy/intolerance record.</t>
+  </si>
+  <si>
+    <t>Reference constrained to the Road Safety Patient profile (`RSPatient`).</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
@@ -3352,7 +3351,9 @@
       <c r="M18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3416,21 +3417,21 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3453,13 +3454,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3510,7 +3511,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3525,10 +3526,10 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -3536,10 +3537,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3562,13 +3563,13 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3619,7 +3620,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3634,10 +3635,10 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -3645,10 +3646,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3671,13 +3672,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3728,7 +3729,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3743,25 +3744,25 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3780,13 +3781,13 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3837,7 +3838,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3852,10 +3853,10 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -3863,14 +3864,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3889,16 +3890,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3948,7 +3949,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3963,21 +3964,21 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4000,16 +4001,16 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4059,7 +4060,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4074,7 +4075,7 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4085,10 +4086,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4111,16 +4112,16 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4170,7 +4171,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4185,7 +4186,7 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4196,10 +4197,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4222,13 +4223,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4279,7 +4280,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4294,7 +4295,7 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4305,10 +4306,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4331,13 +4332,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4388,7 +4389,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4403,7 +4404,7 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -4414,10 +4415,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4446,7 +4447,7 @@
         <v>135</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>137</v>
@@ -4499,7 +4500,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4514,7 +4515,7 @@
         <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -4525,14 +4526,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4554,10 +4555,10 @@
         <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>137</v>
@@ -4612,7 +4613,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4638,10 +4639,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4667,13 +4668,13 @@
         <v>155</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4699,13 +4700,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -4723,7 +4724,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4738,7 +4739,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -4749,14 +4750,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4778,13 +4779,13 @@
         <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4810,13 +4811,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -4834,7 +4835,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
@@ -4855,19 +4856,19 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4886,16 +4887,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4945,7 +4946,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4960,7 +4961,7 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -4971,10 +4972,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4997,13 +4998,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5054,7 +5055,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5069,21 +5070,21 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5109,13 +5110,13 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5144,10 +5145,10 @@
         <v>159</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5165,7 +5166,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5191,10 +5192,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5220,13 +5221,13 @@
         <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5252,13 +5253,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5276,7 +5277,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5291,7 +5292,7 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -5302,10 +5303,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5328,16 +5329,16 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5387,7 +5388,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5402,7 +5403,7 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -711,7 +711,7 @@
     <t>AllergyIntolerance.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-encounter)
 </t>
   </si>
   <si>
@@ -1390,7 +1390,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.3984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety AllergyIntolerance</t>
+    <t>RS AllergyIntolerance</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -696,7 +696,7 @@
     <t>Reference to the patient who is the subject of this allergy/intolerance record.</t>
   </si>
   <si>
-    <t>Reference constrained to the Road Safety Patient profile (`RSPatient`).</t>
+    <t>Reference constrained to the RS Patient profile (`RSPatient`).</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS AllergyIntolerance</t>
+    <t>Road Safety AllergyIntolerance</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -696,7 +696,7 @@
     <t>Reference to the patient who is the subject of this allergy/intolerance record.</t>
   </si>
   <si>
-    <t>Reference constrained to the RS Patient profile (`RSPatient`).</t>
+    <t>Reference constrained to the Road Safety Patient profile (`RSPatient`).</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety AllergyIntolerance</t>
+    <t>RS AllergyIntolerance</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -696,7 +696,7 @@
     <t>Reference to the patient who is the subject of this allergy/intolerance record.</t>
   </si>
   <si>
-    <t>Reference constrained to the Road Safety Patient profile (`RSPatient`).</t>
+    <t>Reference constrained to the RS Patient profile (`RSPatient`).</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -651,7 +651,7 @@
     <t>Allergy / intolerance concept</t>
   </si>
   <si>
-    <t>Concept identifying a known allergy or intolerance (substance or agent) documented for the patient.</t>
+    <t>Code for an allergy or intolerance statement (either a positive or a negated/excluded statement).  This may be a code for a substance or pharmaceutical product that is considered to be responsible for the adverse reaction risk (e.g., "Latex"), an allergy or intolerance condition (e.g., "Latex allergy"), or a negated/excluded code for a specific substance or class (e.g., "No latex allergy") or a general or categorical negated statement (e.g.,  "No known allergy", "No known drug allergies").  Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.</t>
   </si>
   <si>
     <t>Targets AllergyIntolerance.code per ConceptMap.</t>
@@ -693,7 +693,7 @@
     <t>Subject (patient)</t>
   </si>
   <si>
-    <t>Reference to the patient who is the subject of this allergy/intolerance record.</t>
+    <t>The patient who has the allergy or intolerance.</t>
   </si>
   <si>
     <t>Reference constrained to the RS Patient profile (`RSPatient`).</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$40</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="350">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -648,16 +648,26 @@
 </t>
   </si>
   <si>
-    <t>Allergy / intolerance concept</t>
+    <t>Code that identifies the allergy or intolerance</t>
   </si>
   <si>
     <t>Code for an allergy or intolerance statement (either a positive or a negated/excluded statement).  This may be a code for a substance or pharmaceutical product that is considered to be responsible for the adverse reaction risk (e.g., "Latex"), an allergy or intolerance condition (e.g., "Latex allergy"), or a negated/excluded code for a specific substance or class (e.g., "No latex allergy") or a general or categorical negated statement (e.g.,  "No known allergy", "No known drug allergies").  Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.</t>
   </si>
   <si>
-    <t>Targets AllergyIntolerance.code per ConceptMap.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
+    <t>It is strongly recommended that this element be populated using a terminology, where possible. For example, some terminologies used include RxNorm, SNOMED CT, DM+D, NDFRT, ICD-9, IDC-10, UNII, and ATC. Plain text should only be used if there is no appropriate terminology available. Additional details can be specified in the text.++When a substance or product code is specified for the 'code' element, the "default" semantic context is that this is a positive statement of an allergy or intolerance (depending on the value of the 'type' element, if present) condition to the specified substance/product.  In the corresponding SNOMED CT allergy model, the specified substance/product is the target (destination) of the "Causative agent" relationship.++The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Type of the substance/product, allergy or intolerance condition, or negation/exclusion codes for reporting no known allergies.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code|4.0.1</t>
   </si>
   <si>
     <t>substance/product:@@ -679,6 +689,96 @@
     <t>AL1-3 / IAM-3</t>
   </si>
   <si>
+    <t>AllergyIntolerance.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.text</t>
+  </si>
+  <si>
+    <t>Allergy / intolerance concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.patient</t>
   </si>
   <si>
@@ -715,10 +815,13 @@
 </t>
   </si>
   <si>
-    <t>Encounter when the allergy or intolerance was asserted</t>
+    <t>Event (Encounter)</t>
   </si>
   <si>
     <t>The encounter when the allergy or intolerance was asserted.</t>
+  </si>
+  <si>
+    <t>Reference constrained to the RS Encounter (`RSEncounter`).</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
@@ -873,29 +976,7 @@
     <t>AllergyIntolerance.reaction.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.modifierExtension</t>
@@ -925,9 +1006,6 @@
   </si>
   <si>
     <t>Coding of the specific substance (or pharmaceutical product) with a terminology capable of triggering decision support should be used wherever possible.  The 'code' element allows for the use of a specific substance or pharmaceutical product, or a group or class of substances. In the case of an allergy or intolerance to a class of substances, (for example, "penicillins"), the 'reaction.substance' element could be used to code the specific substance that was identified as having caused the reaction (for example, "amoxycillin"). Duplication of the value in the 'code' and 'reaction.substance' elements is acceptable when a specific substance has been recorded in 'code'.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes defining the type of the substance (including pharmaceutical products).</t>
@@ -1371,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1408,7 +1486,7 @@
     <col min="26" max="26" width="50.62109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.6328125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1417,7 +1495,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.51953125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3206,7 +3284,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>200</v>
       </c>
@@ -3225,7 +3303,7 @@
         <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
@@ -3269,11 +3347,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3306,54 +3386,52 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>214</v>
       </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3402,10 +3480,10 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -3414,35 +3492,35 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3454,15 +3532,17 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -3499,37 +3579,37 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -3537,10 +3617,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3551,7 +3631,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3560,19 +3640,23 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3620,13 +3704,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -3635,21 +3719,21 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3663,25 +3747,29 @@
         <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -3729,7 +3817,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3744,52 +3832,54 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -3838,10 +3928,10 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>88</v>
@@ -3853,25 +3943,25 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3887,19 +3977,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3949,7 +4039,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3964,21 +4054,21 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4001,17 +4091,15 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4060,7 +4148,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4075,10 +4163,10 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4086,10 +4174,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4100,7 +4188,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4112,17 +4200,15 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4171,13 +4257,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4186,32 +4272,32 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4223,13 +4309,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4280,13 +4366,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4295,10 +4381,10 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4306,14 +4392,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4329,18 +4415,20 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4389,7 +4477,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4401,35 +4489,35 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4441,16 +4529,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4500,22 +4588,22 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -4526,14 +4614,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4546,26 +4634,24 @@
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -4613,7 +4699,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4625,10 +4711,10 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -4639,10 +4725,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4653,7 +4739,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -4665,17 +4751,15 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -4700,13 +4784,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -4724,13 +4808,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -4739,7 +4823,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -4750,22 +4834,22 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
       </c>
@@ -4776,17 +4860,15 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -4811,13 +4893,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -4835,47 +4917,47 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -4887,16 +4969,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>135</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>303</v>
+        <v>137</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4946,22 +5028,22 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -4972,42 +5054,46 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5055,36 +5141,36 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5107,16 +5193,16 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5142,14 +5228,14 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5166,7 +5252,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5181,7 +5267,7 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5199,14 +5285,14 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5221,13 +5307,13 @@
         <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5253,13 +5339,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5280,10 +5366,10 @@
         <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -5292,32 +5378,32 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>321</v>
+        <v>178</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5329,16 +5415,16 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5388,13 +5474,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -5403,17 +5489,459 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="L37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM36">
+  <autoFilter ref="A1:AM40">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5423,7 +5951,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-allergy-intolerance.xlsx
+++ b/StructureDefinition-rs-allergy-intolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
